--- a/Project3.xlsx
+++ b/Project3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIGI\Teaching\DigiPen\21-22FA - MAT 345\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shmunny\Desktop\Desktop\Projects\DataScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285BF687-E06D-49DE-94AC-8D742241BDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F97195-6D06-4520-9BD6-5FBE918A3FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>Quiz</t>
   </si>
   <si>
-    <t>Course Grade</t>
+    <t>Course_Grade</t>
   </si>
 </sst>
 </file>
@@ -441,17 +441,17 @@
   <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.83984375" customWidth="1"/>
-    <col min="4" max="4" width="13.68359375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>56</v>
       </c>
@@ -479,7 +479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>40</v>
       </c>
@@ -493,7 +493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>64</v>
       </c>
@@ -507,7 +507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>50</v>
       </c>
@@ -521,7 +521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>73</v>
       </c>
@@ -535,7 +535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>65</v>
       </c>
@@ -549,7 +549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>76</v>
       </c>
@@ -563,7 +563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>75</v>
       </c>
@@ -577,7 +577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>92</v>
       </c>
@@ -591,7 +591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>48</v>
       </c>
@@ -605,7 +605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>37</v>
       </c>
@@ -619,7 +619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>59</v>
       </c>
@@ -633,7 +633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44</v>
       </c>
@@ -647,7 +647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>56</v>
       </c>
@@ -661,7 +661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>74</v>
       </c>
@@ -675,7 +675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>52</v>
       </c>
@@ -689,7 +689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>60</v>
       </c>
@@ -703,7 +703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>58</v>
       </c>
@@ -717,7 +717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>79</v>
       </c>
@@ -731,7 +731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>74</v>
       </c>
@@ -745,7 +745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>86</v>
       </c>
@@ -759,7 +759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>72</v>
       </c>
@@ -773,7 +773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>69</v>
       </c>
@@ -787,7 +787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>79</v>
       </c>
@@ -801,7 +801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>61</v>
       </c>
@@ -815,7 +815,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>73</v>
       </c>
@@ -829,7 +829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>51</v>
       </c>
@@ -843,7 +843,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>62</v>
       </c>
@@ -857,7 +857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>58</v>
       </c>
@@ -871,7 +871,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>67</v>
       </c>
@@ -885,7 +885,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>72</v>
       </c>
@@ -899,7 +899,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -913,7 +913,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>62</v>
       </c>
@@ -927,7 +927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>81</v>
       </c>
@@ -941,7 +941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>73</v>
       </c>
@@ -955,7 +955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>69</v>
       </c>
@@ -969,7 +969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>69</v>
       </c>
@@ -983,7 +983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>57</v>
       </c>
@@ -997,7 +997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>57</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>82</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>60</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>78</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>89</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>83</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>66</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>63</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>82</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>74</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>63</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>86</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>68</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>69</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>83</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>76</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>67</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>63</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>72</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>73</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>79</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>74</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>71</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>64</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>64</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>75</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>73</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>76</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>67</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>78</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>87</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>59</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>67</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>73</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>63</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>72</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>64</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>61</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>72</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>70</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>59</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>78</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>77</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>84</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>76</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>77</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>67</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>75</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>80</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>79</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>66</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>67</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>76</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>72</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>85</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>63</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>73</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>65</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>67</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>71</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>71</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>77</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>58</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>88</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>79</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>83</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>74</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>68</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>59</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>73</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>75</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>84</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>78</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>69</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>70</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>74</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>70</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>80</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>79</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>66</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>72</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>69</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>75</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>76</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>76</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>77</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>60</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>73</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>78</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>70</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>68</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>79</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>75</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>85</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>73</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>86</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>76</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>78</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>67</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>78</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>64</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>79</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>98</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>84</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>92</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>79</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>84</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>72</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>84</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>78</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>77</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>77</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>98</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>90</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>80</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>74</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>87</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>70</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>87</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>85</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>83</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>76</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>90</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>85</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>98</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>86</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>75</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>89</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>93</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>80</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>77</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>85</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>90</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>75</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>89</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>73</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>67</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>85</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>82</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>82</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>84</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>85</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>76</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>90</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>82</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>74</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>88</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>72</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>79</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>87</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>74</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>90</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>85</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>83</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>78</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>92</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>82</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>90</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>87</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>78</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>68</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>93</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>79</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>93</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>81</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>100</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>89</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>86</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>91</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>82</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>82</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>83</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>88</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>74</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>94</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>94</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>88</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>84</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>74</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>79</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>90</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>74</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>89</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>92</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>91</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>74</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>95</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>83</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>94</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>89</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>80</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>91</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>83</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>88</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>91</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>84</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>74</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>83</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>88</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>88</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>79</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>87</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>73</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>91</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>84</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>86</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>87</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>82</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>91</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>90</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>85</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>95</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>81</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>87</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>83</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>96</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>88</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>84</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>90</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>89</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>95</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>94</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>86</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>84</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>90</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>93</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>89</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>86</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>90</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>95</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>91</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>90</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>92</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>93</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>87</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>91</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>89</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>86</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>88</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>95</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>95</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>82</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>95</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>100</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>87</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>91</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>96</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>96</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>88</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>94</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>90</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>98</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>94</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>93</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>89</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>86</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>91</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>90</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>99</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>96</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>93</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>95</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>97</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>88</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>97</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>96</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>95</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>97</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>94</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>100</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>99</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>99</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>99</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>93</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>99</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>89</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>91</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>90</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>89</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>97</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>98</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>98</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>100</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>95</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>98</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>96</v>
       </c>
@@ -5112,14 +5112,14 @@
       <selection activeCell="A2" sqref="A2:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.68359375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>49</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>56</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>58</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>61</v>
       </c>
@@ -5186,7 +5186,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>62</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>66</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>71</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>73</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>73</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>74</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>74</v>
       </c>
@@ -5284,7 +5284,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>74</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>78</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>80</v>
       </c>
@@ -5326,7 +5326,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>80</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>81</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>81</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>82</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>83</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>83</v>
       </c>
@@ -5410,7 +5410,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>84</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>84</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>85</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>85</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>86</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>86</v>
       </c>
@@ -5494,7 +5494,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>87</v>
       </c>
@@ -5508,7 +5508,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>87</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>87</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>87</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>87</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>88</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>89</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>89</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>89</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>89</v>
       </c>
@@ -5634,7 +5634,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>90</v>
       </c>
@@ -5648,7 +5648,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>91</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>91</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>92</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>93</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>94</v>
       </c>
@@ -5718,7 +5718,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>95</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>95</v>
       </c>
@@ -5746,7 +5746,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>97</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>97</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>97</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>97</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>98</v>
       </c>
@@ -5816,7 +5816,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>99</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>100</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>100</v>
       </c>
@@ -5858,7 +5858,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>100</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>100</v>
       </c>
